--- a/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC3.4.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC3.4.1_TC1.xlsx
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2914596241072613</v>
+        <v>0.3102768284083366</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.29145962410726134, 'ngram_match_score': 0.19910227880735365, 'weighted_ngram_match_score': 0.2125119472683892, 'syntax_match_score': 0.5714285714285714, 'dataflow_match_score': 0.1827956989247312}</t>
+          <t>{'codebleu': 0.3102768284083366, 'ngram_match_score': 0.19910227880735365, 'weighted_ngram_match_score': 0.2125119472683892, 'syntax_match_score': 0.5714285714285714, 'dataflow_match_score': 0.25806451612903225}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC3.4.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC3.4.1_TC1.xlsx
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3102768284083366</v>
+        <v>0.3237176886233904</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.3102768284083366, 'ngram_match_score': 0.19910227880735365, 'weighted_ngram_match_score': 0.2125119472683892, 'syntax_match_score': 0.5714285714285714, 'dataflow_match_score': 0.25806451612903225}</t>
+          <t>{'codebleu': 0.3237176886233904, 'ngram_match_score': 0.19910227880735365, 'weighted_ngram_match_score': 0.2125119472683892, 'syntax_match_score': 0.5714285714285714, 'dataflow_match_score': 0.3118279569892473}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
